--- a/en/docs/Calculation_sheet_for_team_development_hours_in_each_sprint.xlsx
+++ b/en/docs/Calculation_sheet_for_team_development_hours_in_each_sprint.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1546A62-A29D-463E-974E-E48C9D41B774}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F119C158-5AEF-4627-8F89-F4A1DB52EBE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -234,33 +234,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Top: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">Losses of working time </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>(half days, time off, training, departmental measures, work outside the project, etc.)</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Bottom: Development hours (enter a "-" for days when each team member is not working)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -376,6 +349,31 @@
     <t>Planning and Decomposing Task</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Top: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Losses of working time </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(half days, time off, training, departmental measures, work outside the project, etc.)</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -388,7 +386,7 @@
     <numFmt numFmtId="179" formatCode="[$-409]d\-mmm;@"/>
     <numFmt numFmtId="180" formatCode="[$-409]d\-mmm\(ddd\);@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -405,51 +403,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="24"/>
-      <color rgb="FFFF0000"/>
-      <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -459,6 +415,48 @@
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FFFF0000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1060,299 +1058,302 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1894,7 +1895,10 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="1"/>
+  </cols>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1911,1830 +1915,1830 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.8" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" style="1" customWidth="1"/>
-    <col min="7" max="14" width="10.77734375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="59.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.88671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="6.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="2" customWidth="1"/>
+    <col min="7" max="14" width="10.77734375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="11.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="59.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B1" s="37" t="str">
+      <c r="B1" s="3" t="str">
         <f ca="1">RIGHT(CELL("filename",A2),LEN(CELL("filename",A2))-FIND("]",CELL("filename",A2)))</f>
         <v>SprintＸ</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4">
+        <v>43472</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="G2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="37" t="s">
+    <row r="3" spans="1:16" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="5"/>
+      <c r="O3" s="6"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B4" s="7"/>
+      <c r="F4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+    </row>
+    <row r="5" spans="1:16" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="86">
-        <v>43472</v>
-      </c>
-      <c r="C2" s="37"/>
-      <c r="G2" s="37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="15.6" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="14"/>
-      <c r="O3" s="2"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B4" s="4"/>
-      <c r="F4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="80" t="s">
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-    </row>
-    <row r="5" spans="1:16" ht="15.6" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="81" t="s">
+      <c r="H5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="82" t="s">
+      <c r="I5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="82" t="s">
+      <c r="J5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="82" t="s">
+      <c r="K5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="82" t="s">
+      <c r="L5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="82" t="s">
+      <c r="M5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="82" t="s">
+      <c r="N5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="83" t="s">
+      <c r="O5" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="O5" s="84" t="s">
+      <c r="P5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="P5" s="85" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B6" s="87">
+      <c r="B6" s="18">
         <f>$B$2</f>
         <v>43472</v>
       </c>
-      <c r="C6" s="11" t="str">
+      <c r="C6" s="19" t="str">
         <f>TEXT(B6,"ddd")</f>
         <v>Mon</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="51"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="27"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B7" s="88"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="22">
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="32">
         <f>IF(F$53+$E6+F6&lt;0,0,F$53+$E6+F6)</f>
         <v>5</v>
       </c>
-      <c r="G7" s="65">
+      <c r="G7" s="33">
         <f t="shared" ref="G7:M7" si="0">IF(G$52+$E6+G6&lt;0,0,G$52+$E6+G6)</f>
         <v>5</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="32">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I7" s="32">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J7" s="22">
+      <c r="J7" s="32">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="K7" s="24">
+      <c r="K7" s="34">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="L7" s="24">
+      <c r="L7" s="34">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="M7" s="25">
+      <c r="M7" s="35">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N7" s="60">
+      <c r="N7" s="36">
         <f>SUM(G7:M7)</f>
         <v>35</v>
       </c>
-      <c r="O7" s="22">
+      <c r="O7" s="32">
         <f>N34</f>
         <v>490</v>
       </c>
-      <c r="P7" s="52"/>
+      <c r="P7" s="37"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B8" s="89">
+      <c r="B8" s="38">
         <f>$B$2+1</f>
         <v>43473</v>
       </c>
-      <c r="C8" s="9" t="str">
+      <c r="C8" s="39" t="str">
         <f>TEXT(B8,"ddd")</f>
         <v>Tue</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="61"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="53"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="47"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B9" s="88"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="66">
+      <c r="B9" s="28"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="48">
         <f>IF(F$53+$E8+F8&lt;0,0,F$53+$E8+F8)</f>
         <v>5</v>
       </c>
-      <c r="G9" s="74">
+      <c r="G9" s="49">
         <f t="shared" ref="G9:M9" si="1">IF(G$52+$E8+G8&lt;0,0,G$52+$E8+G8)</f>
         <v>5</v>
       </c>
-      <c r="H9" s="66">
+      <c r="H9" s="48">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I9" s="66">
+      <c r="I9" s="48">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="J9" s="66">
+      <c r="J9" s="48">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="K9" s="67">
+      <c r="K9" s="50">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="L9" s="67">
+      <c r="L9" s="50">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="M9" s="68">
+      <c r="M9" s="51">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="N9" s="69">
+      <c r="N9" s="52">
         <f>SUM(G9:M9)</f>
         <v>35</v>
       </c>
-      <c r="O9" s="66">
+      <c r="O9" s="48">
         <f>O7-N7</f>
         <v>455</v>
       </c>
-      <c r="P9" s="54"/>
+      <c r="P9" s="53"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B10" s="89">
+      <c r="B10" s="38">
         <f>$B$2+2</f>
         <v>43474</v>
       </c>
-      <c r="C10" s="9" t="str">
+      <c r="C10" s="39" t="str">
         <f>TEXT(B10,"ddd")</f>
         <v>Wed</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="53"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="47"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B11" s="88"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="22">
+      <c r="B11" s="28"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="32">
         <f>IF(F$53+$E10+F10&lt;0,0,F$53+$E10+F10)</f>
         <v>5</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="54">
         <f t="shared" ref="G11:M11" si="2">IF(G$52+$E10+G10&lt;0,0,G$52+$E10+G10)</f>
         <v>5</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11" s="32">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I11" s="32">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="J11" s="22">
+      <c r="J11" s="32">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="K11" s="24">
+      <c r="K11" s="34">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="L11" s="24">
+      <c r="L11" s="34">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="M11" s="25">
+      <c r="M11" s="35">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="N11" s="60">
+      <c r="N11" s="36">
         <f>SUM(G11:M11)</f>
         <v>35</v>
       </c>
-      <c r="O11" s="22">
+      <c r="O11" s="32">
         <f>O9-N9</f>
         <v>420</v>
       </c>
-      <c r="P11" s="52"/>
+      <c r="P11" s="37"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B12" s="89">
+      <c r="B12" s="38">
         <f>$B$2+3</f>
         <v>43475</v>
       </c>
-      <c r="C12" s="9" t="str">
+      <c r="C12" s="39" t="str">
         <f>TEXT(B12,"ddd")</f>
         <v>Thu</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="53"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="47"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B13" s="88"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="22">
+      <c r="B13" s="28"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="32">
         <f>IF(F$53+$E12+F12&lt;0,0,F$53+$E12+F12)</f>
         <v>5</v>
       </c>
-      <c r="G13" s="65">
+      <c r="G13" s="33">
         <f t="shared" ref="G13:M13" si="3">IF(G$52+$E12+G12&lt;0,0,G$52+$E12+G12)</f>
         <v>5</v>
       </c>
-      <c r="H13" s="24">
+      <c r="H13" s="34">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="I13" s="22">
+      <c r="I13" s="32">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="J13" s="22">
+      <c r="J13" s="32">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="K13" s="22">
+      <c r="K13" s="32">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="L13" s="24">
+      <c r="L13" s="34">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="M13" s="25">
+      <c r="M13" s="35">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="N13" s="60">
+      <c r="N13" s="36">
         <f>SUM(G13:M13)</f>
         <v>35</v>
       </c>
-      <c r="O13" s="22">
+      <c r="O13" s="32">
         <f>O11-N11</f>
         <v>385</v>
       </c>
-      <c r="P13" s="52"/>
+      <c r="P13" s="37"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B14" s="90">
+      <c r="B14" s="56">
         <f>$B$2+4</f>
         <v>43476</v>
       </c>
-      <c r="C14" s="38" t="str">
+      <c r="C14" s="57" t="str">
         <f>TEXT(B14,"ddd")</f>
         <v>Fri</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="54"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="63"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="53"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B15" s="88"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="22">
+      <c r="B15" s="28"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="32">
         <f>IF(F$53+$E14+F14&lt;0,0,F$53+$E14+F14)</f>
         <v>5</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="54">
         <f t="shared" ref="G15:M15" si="4">IF(G$52+$E14+G14&lt;0,0,G$52+$E14+G14)</f>
         <v>5</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="32">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="I15" s="22">
+      <c r="I15" s="32">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="J15" s="22">
+      <c r="J15" s="32">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="K15" s="22">
+      <c r="K15" s="32">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="L15" s="24">
+      <c r="L15" s="34">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="M15" s="25">
+      <c r="M15" s="35">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="N15" s="60">
+      <c r="N15" s="36">
         <f>SUM(G15:M15)</f>
         <v>35</v>
       </c>
-      <c r="O15" s="22">
+      <c r="O15" s="32">
         <f>O13-N13</f>
         <v>350</v>
       </c>
-      <c r="P15" s="52"/>
+      <c r="P15" s="37"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B16" s="90">
+      <c r="B16" s="56">
         <f>$B$2+5</f>
         <v>43477</v>
       </c>
-      <c r="C16" s="38" t="str">
+      <c r="C16" s="57" t="str">
         <f>TEXT(B16,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="D16" s="39"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="54"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="53"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B17" s="88"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="22">
+      <c r="B17" s="28"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="32">
         <f>IF(F$53+$E16+F16&lt;0,0,F$53+$E16+F16)</f>
         <v>5</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="54">
         <f t="shared" ref="G17:M17" si="5">IF(G$52+$E16+G16&lt;0,0,G$52+$E16+G16)</f>
         <v>5</v>
       </c>
-      <c r="H17" s="22">
+      <c r="H17" s="32">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="I17" s="22">
+      <c r="I17" s="32">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="J17" s="22">
+      <c r="J17" s="32">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="K17" s="22">
+      <c r="K17" s="32">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="L17" s="24">
+      <c r="L17" s="34">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="M17" s="25">
+      <c r="M17" s="35">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="N17" s="60">
+      <c r="N17" s="36">
         <f>SUM(G17:M17)</f>
         <v>35</v>
       </c>
-      <c r="O17" s="22">
+      <c r="O17" s="32">
         <f>O15-N15</f>
         <v>315</v>
       </c>
-      <c r="P17" s="52"/>
+      <c r="P17" s="37"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B18" s="90">
+      <c r="B18" s="56">
         <f>$B$2+6</f>
         <v>43478</v>
       </c>
-      <c r="C18" s="38" t="str">
+      <c r="C18" s="57" t="str">
         <f>TEXT(B18,"ddd")</f>
         <v>Sun</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="62"/>
-      <c r="O18" s="41"/>
-      <c r="P18" s="54"/>
-    </row>
-    <row r="19" spans="2:16" ht="15.6" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="91"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="30">
+      <c r="D18" s="40"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="63"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="53"/>
+    </row>
+    <row r="19" spans="2:16" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="65"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="69">
         <f>IF(F$53+$E18+F18&lt;0,0,F$53+$E18+F18)</f>
         <v>5</v>
       </c>
-      <c r="G19" s="31">
+      <c r="G19" s="70">
         <f t="shared" ref="G19:M19" si="6">IF(G$52+$E18+G18&lt;0,0,G$52+$E18+G18)</f>
         <v>5</v>
       </c>
-      <c r="H19" s="30">
+      <c r="H19" s="69">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="I19" s="30">
+      <c r="I19" s="69">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="J19" s="30">
+      <c r="J19" s="69">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="K19" s="30">
+      <c r="K19" s="69">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="L19" s="32">
+      <c r="L19" s="71">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="M19" s="33">
+      <c r="M19" s="72">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="N19" s="63">
+      <c r="N19" s="73">
         <f>SUM(G19:M19)</f>
         <v>35</v>
       </c>
-      <c r="O19" s="30">
+      <c r="O19" s="69">
         <f>O17-N17</f>
         <v>280</v>
       </c>
-      <c r="P19" s="55"/>
+      <c r="P19" s="74"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B20" s="90">
+      <c r="B20" s="56">
         <f>$B$2+7</f>
         <v>43479</v>
       </c>
-      <c r="C20" s="38" t="str">
+      <c r="C20" s="57" t="str">
         <f>TEXT(B20,"ddd")</f>
         <v>Mon</v>
       </c>
-      <c r="D20" s="39"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="62"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="54"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="62"/>
+      <c r="N20" s="63"/>
+      <c r="O20" s="59"/>
+      <c r="P20" s="53"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B21" s="88"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="22">
+      <c r="B21" s="28"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="32">
         <f>IF(F$53+$E20+F20&lt;0,0,F$53+$E20+F20)</f>
         <v>5</v>
       </c>
-      <c r="G21" s="23">
+      <c r="G21" s="54">
         <f t="shared" ref="G21:M21" si="7">IF(G$52+$E20+G20&lt;0,0,G$52+$E20+G20)</f>
         <v>5</v>
       </c>
-      <c r="H21" s="22">
+      <c r="H21" s="32">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="I21" s="22">
+      <c r="I21" s="32">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="J21" s="22">
+      <c r="J21" s="32">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="K21" s="22">
+      <c r="K21" s="32">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="L21" s="24">
+      <c r="L21" s="34">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="M21" s="25">
+      <c r="M21" s="35">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="N21" s="60">
+      <c r="N21" s="36">
         <f>SUM(G21:M21)</f>
         <v>35</v>
       </c>
-      <c r="O21" s="22">
+      <c r="O21" s="32">
         <f>O19-N19</f>
         <v>245</v>
       </c>
-      <c r="P21" s="52"/>
+      <c r="P21" s="37"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B22" s="89">
+      <c r="B22" s="38">
         <f>$B$2+8</f>
         <v>43480</v>
       </c>
-      <c r="C22" s="9" t="str">
+      <c r="C22" s="39" t="str">
         <f>TEXT(B22,"ddd")</f>
         <v>Tue</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="61"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="53"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="47"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B23" s="88"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="22">
+      <c r="B23" s="28"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="32">
         <f>IF(F$53+$E22+F22&lt;0,0,F$53+$E22+F22)</f>
         <v>5</v>
       </c>
-      <c r="G23" s="23">
+      <c r="G23" s="54">
         <f t="shared" ref="G23:M23" si="8">IF(G$52+$E22+G22&lt;0,0,G$52+$E22+G22)</f>
         <v>5</v>
       </c>
-      <c r="H23" s="22">
+      <c r="H23" s="32">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="I23" s="22">
+      <c r="I23" s="32">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="J23" s="22">
+      <c r="J23" s="32">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="K23" s="22">
+      <c r="K23" s="32">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="L23" s="24">
+      <c r="L23" s="34">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="M23" s="25">
+      <c r="M23" s="35">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="N23" s="60">
+      <c r="N23" s="36">
         <f>SUM(G23:M23)</f>
         <v>35</v>
       </c>
-      <c r="O23" s="22">
+      <c r="O23" s="32">
         <f>O21-N21</f>
         <v>210</v>
       </c>
-      <c r="P23" s="52"/>
+      <c r="P23" s="37"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B24" s="89">
+      <c r="B24" s="38">
         <f>$B$2+9</f>
         <v>43481</v>
       </c>
-      <c r="C24" s="9" t="str">
+      <c r="C24" s="39" t="str">
         <f>TEXT(B24,"ddd")</f>
         <v>Wed</v>
       </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="61"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="53"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="47"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B25" s="88"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="22">
+      <c r="B25" s="28"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="32">
         <f>IF(F$53+$E24+F24&lt;0,0,F$53+$E24+F24)</f>
         <v>5</v>
       </c>
-      <c r="G25" s="23">
+      <c r="G25" s="54">
         <f t="shared" ref="G25:M25" si="9">IF(G$52+$E24+G24&lt;0,0,G$52+$E24+G24)</f>
         <v>5</v>
       </c>
-      <c r="H25" s="22">
+      <c r="H25" s="32">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="I25" s="22">
+      <c r="I25" s="32">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="J25" s="22">
+      <c r="J25" s="32">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="K25" s="24">
+      <c r="K25" s="34">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="L25" s="24">
+      <c r="L25" s="34">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="M25" s="25">
+      <c r="M25" s="35">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="N25" s="60">
+      <c r="N25" s="36">
         <f>SUM(G25:M25)</f>
         <v>35</v>
       </c>
-      <c r="O25" s="22">
+      <c r="O25" s="32">
         <f>O23-N23</f>
         <v>175</v>
       </c>
-      <c r="P25" s="52"/>
+      <c r="P25" s="37"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B26" s="89">
+      <c r="B26" s="38">
         <f>$B$2+10</f>
         <v>43482</v>
       </c>
-      <c r="C26" s="9" t="str">
+      <c r="C26" s="39" t="str">
         <f>TEXT(B26,"ddd")</f>
         <v>Thu</v>
       </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="61"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="53"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="46"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="47"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B27" s="88"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="22">
+      <c r="B27" s="28"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="32">
         <f>IF(F$53+$E26+F26&lt;0,0,F$53+$E26+F26)</f>
         <v>5</v>
       </c>
-      <c r="G27" s="23">
+      <c r="G27" s="54">
         <f t="shared" ref="G27:M27" si="10">IF(G$52+$E26+G26&lt;0,0,G$52+$E26+G26)</f>
         <v>5</v>
       </c>
-      <c r="H27" s="22">
+      <c r="H27" s="32">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
-      <c r="I27" s="22">
+      <c r="I27" s="32">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
-      <c r="J27" s="22">
+      <c r="J27" s="32">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
-      <c r="K27" s="22">
+      <c r="K27" s="32">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
-      <c r="L27" s="24">
+      <c r="L27" s="34">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
-      <c r="M27" s="25">
+      <c r="M27" s="35">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
-      <c r="N27" s="60">
+      <c r="N27" s="36">
         <f>SUM(G27:M27)</f>
         <v>35</v>
       </c>
-      <c r="O27" s="22">
+      <c r="O27" s="32">
         <f>O25-N25</f>
         <v>140</v>
       </c>
-      <c r="P27" s="52"/>
+      <c r="P27" s="37"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B28" s="89">
+      <c r="B28" s="38">
         <f>$B$2+11</f>
         <v>43483</v>
       </c>
-      <c r="C28" s="9" t="str">
+      <c r="C28" s="39" t="str">
         <f>TEXT(B28,"ddd")</f>
         <v>Fri</v>
       </c>
-      <c r="D28" s="39"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="43"/>
-      <c r="M28" s="44"/>
-      <c r="N28" s="61"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="54"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="61"/>
+      <c r="M28" s="62"/>
+      <c r="N28" s="46"/>
+      <c r="O28" s="44"/>
+      <c r="P28" s="53"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B29" s="88"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="22">
+      <c r="B29" s="28"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="32">
         <f>IF(F$53+$E28+F28&lt;0,0,F$53+$E28+F28)</f>
         <v>5</v>
       </c>
-      <c r="G29" s="23">
+      <c r="G29" s="54">
         <f t="shared" ref="G29:M29" si="11">IF(G$52+$E28+G28&lt;0,0,G$52+$E28+G28)</f>
         <v>5</v>
       </c>
-      <c r="H29" s="22">
+      <c r="H29" s="32">
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="I29" s="22">
+      <c r="I29" s="32">
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="J29" s="22">
+      <c r="J29" s="32">
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="K29" s="24">
+      <c r="K29" s="34">
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="L29" s="24">
+      <c r="L29" s="34">
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="M29" s="25">
+      <c r="M29" s="35">
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="N29" s="60">
+      <c r="N29" s="36">
         <f>SUM(G29:M29)</f>
         <v>35</v>
       </c>
-      <c r="O29" s="24">
+      <c r="O29" s="34">
         <f>O27-N27</f>
         <v>105</v>
       </c>
-      <c r="P29" s="52"/>
+      <c r="P29" s="37"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B30" s="90">
+      <c r="B30" s="56">
         <f>$B$2+12</f>
         <v>43484</v>
       </c>
-      <c r="C30" s="38" t="str">
+      <c r="C30" s="57" t="str">
         <f>TEXT(B30,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="D30" s="39"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="41"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="43"/>
-      <c r="M30" s="44"/>
-      <c r="N30" s="62"/>
-      <c r="O30" s="41"/>
-      <c r="P30" s="54"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="59"/>
+      <c r="K30" s="59"/>
+      <c r="L30" s="61"/>
+      <c r="M30" s="62"/>
+      <c r="N30" s="63"/>
+      <c r="O30" s="59"/>
+      <c r="P30" s="53"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B31" s="88"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="22">
+      <c r="B31" s="28"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="32">
         <f>IF(F$53+$E30+F30&lt;0,0,F$53+$E30+F30)</f>
         <v>5</v>
       </c>
-      <c r="G31" s="23">
+      <c r="G31" s="54">
         <f t="shared" ref="G31:M31" si="12">IF(G$52+$E30+G30&lt;0,0,G$52+$E30+G30)</f>
         <v>5</v>
       </c>
-      <c r="H31" s="22">
+      <c r="H31" s="32">
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="I31" s="22">
+      <c r="I31" s="32">
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="J31" s="22">
+      <c r="J31" s="32">
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="K31" s="24">
+      <c r="K31" s="34">
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="L31" s="24">
+      <c r="L31" s="34">
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="M31" s="25">
+      <c r="M31" s="35">
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="N31" s="60">
+      <c r="N31" s="36">
         <f>SUM(G31:M31)</f>
         <v>35</v>
       </c>
-      <c r="O31" s="22">
+      <c r="O31" s="32">
         <f>O29-N29</f>
         <v>70</v>
       </c>
-      <c r="P31" s="52"/>
+      <c r="P31" s="37"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B32" s="89">
+      <c r="B32" s="38">
         <f>$B$2+13</f>
         <v>43485</v>
       </c>
-      <c r="C32" s="9" t="str">
+      <c r="C32" s="39" t="str">
         <f>TEXT(B32,"ddd")</f>
         <v>Sun</v>
       </c>
-      <c r="D32" s="39"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="43"/>
-      <c r="M32" s="44"/>
-      <c r="N32" s="61"/>
-      <c r="O32" s="28"/>
-      <c r="P32" s="54"/>
-    </row>
-    <row r="33" spans="2:16" ht="15.6" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="79"/>
-      <c r="C33" s="76"/>
-      <c r="D33" s="77"/>
-      <c r="E33" s="78"/>
-      <c r="F33" s="30">
+      <c r="D32" s="64"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="59"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="61"/>
+      <c r="M32" s="62"/>
+      <c r="N32" s="46"/>
+      <c r="O32" s="44"/>
+      <c r="P32" s="53"/>
+    </row>
+    <row r="33" spans="2:16" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="75"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="69">
         <f>IF(F$53+$E32+F32&lt;0,0,F$53+$E32+F32)</f>
         <v>5</v>
       </c>
-      <c r="G33" s="34">
+      <c r="G33" s="76">
         <f t="shared" ref="G33:M33" si="13">IF(G$52+$E32+G32&lt;0,0,G$52+$E32+G32)</f>
         <v>5</v>
       </c>
-      <c r="H33" s="47">
+      <c r="H33" s="77">
         <f t="shared" si="13"/>
         <v>5</v>
       </c>
-      <c r="I33" s="47">
+      <c r="I33" s="77">
         <f t="shared" si="13"/>
         <v>5</v>
       </c>
-      <c r="J33" s="47">
+      <c r="J33" s="77">
         <f t="shared" si="13"/>
         <v>5</v>
       </c>
-      <c r="K33" s="35">
+      <c r="K33" s="78">
         <f t="shared" si="13"/>
         <v>5</v>
       </c>
-      <c r="L33" s="35">
+      <c r="L33" s="78">
         <f t="shared" si="13"/>
         <v>5</v>
       </c>
-      <c r="M33" s="64">
+      <c r="M33" s="79">
         <f t="shared" si="13"/>
         <v>5</v>
       </c>
-      <c r="N33" s="63">
+      <c r="N33" s="73">
         <f>SUM(G33:M33)</f>
         <v>35</v>
       </c>
-      <c r="O33" s="32">
+      <c r="O33" s="71">
         <f>O31-N31</f>
         <v>35</v>
       </c>
-      <c r="P33" s="55"/>
+      <c r="P33" s="74"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="F34" s="36"/>
-      <c r="G34" s="36">
+      <c r="F34" s="80"/>
+      <c r="G34" s="80">
         <f t="shared" ref="G34:M34" si="14">SUM(G7,G9,G11,G13,G15,G17,G19,G21,G23,G25,G27,G29,G31,G33)</f>
         <v>70</v>
       </c>
-      <c r="H34" s="36">
+      <c r="H34" s="80">
         <f t="shared" si="14"/>
         <v>70</v>
       </c>
-      <c r="I34" s="36">
+      <c r="I34" s="80">
         <f t="shared" si="14"/>
         <v>70</v>
       </c>
-      <c r="J34" s="36">
+      <c r="J34" s="80">
         <f t="shared" si="14"/>
         <v>70</v>
       </c>
-      <c r="K34" s="36">
+      <c r="K34" s="80">
         <f t="shared" si="14"/>
         <v>70</v>
       </c>
-      <c r="L34" s="36">
+      <c r="L34" s="80">
         <f t="shared" si="14"/>
         <v>70</v>
       </c>
-      <c r="M34" s="36">
+      <c r="M34" s="80">
         <f t="shared" si="14"/>
         <v>70</v>
       </c>
-      <c r="N34" s="45">
+      <c r="N34" s="81">
         <f>SUM(N7,N13,N9,N11,N15,N17,N19,N21,N23,N25,N27,N29,N31,N33)</f>
         <v>490</v>
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="G35" s="46"/>
-      <c r="M35" s="46"/>
-      <c r="N35" s="46"/>
-    </row>
-    <row r="36" spans="2:16" ht="15.6" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F36" s="96"/>
-      <c r="G36" s="95" t="s">
+      <c r="G35" s="82"/>
+      <c r="M35" s="82"/>
+      <c r="N35" s="82"/>
+    </row>
+    <row r="36" spans="2:16" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F36" s="83"/>
+      <c r="G36" s="84" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H36" s="82" t="s">
+      <c r="I36" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I36" s="82" t="s">
+      <c r="J36" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J36" s="82" t="s">
+      <c r="K36" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="K36" s="82" t="s">
+      <c r="L36" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="L36" s="82" t="s">
+      <c r="M36" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="M36" s="82" t="s">
-        <v>20</v>
-      </c>
-      <c r="N36" s="46"/>
+      <c r="N36" s="82"/>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="F37" s="93">
+      <c r="F37" s="85">
         <f>B6</f>
         <v>43472</v>
       </c>
-      <c r="G37" s="48">
+      <c r="G37" s="86">
         <f t="shared" ref="G37:M37" si="15">SUM(G7,G9,G11,G13,G15,G17,G19,G21,G23,G25,G27,G29,G31,G33)</f>
         <v>70</v>
       </c>
-      <c r="H37" s="48">
+      <c r="H37" s="86">
         <f t="shared" si="15"/>
         <v>70</v>
       </c>
-      <c r="I37" s="48">
+      <c r="I37" s="86">
         <f t="shared" si="15"/>
         <v>70</v>
       </c>
-      <c r="J37" s="48">
+      <c r="J37" s="86">
         <f t="shared" si="15"/>
         <v>70</v>
       </c>
-      <c r="K37" s="48">
+      <c r="K37" s="86">
         <f t="shared" si="15"/>
         <v>70</v>
       </c>
-      <c r="L37" s="48">
+      <c r="L37" s="86">
         <f t="shared" si="15"/>
         <v>70</v>
       </c>
-      <c r="M37" s="48">
+      <c r="M37" s="86">
         <f t="shared" si="15"/>
         <v>70</v>
       </c>
-      <c r="N37" s="48">
+      <c r="N37" s="86">
         <f t="shared" ref="N37:N50" si="16">SUM(G37:M37)</f>
         <v>490</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="F38" s="93">
+      <c r="F38" s="85">
         <f>B8</f>
         <v>43473</v>
       </c>
-      <c r="G38" s="48">
+      <c r="G38" s="86">
         <f t="shared" ref="G38:M38" si="17">SUM(G9,G11,G13,G15,G17,G19,G21,G23,G25,G27,G29,G31,G33)</f>
         <v>65</v>
       </c>
-      <c r="H38" s="48">
+      <c r="H38" s="86">
         <f t="shared" si="17"/>
         <v>65</v>
       </c>
-      <c r="I38" s="48">
+      <c r="I38" s="86">
         <f t="shared" si="17"/>
         <v>65</v>
       </c>
-      <c r="J38" s="48">
+      <c r="J38" s="86">
         <f t="shared" si="17"/>
         <v>65</v>
       </c>
-      <c r="K38" s="48">
+      <c r="K38" s="86">
         <f t="shared" si="17"/>
         <v>65</v>
       </c>
-      <c r="L38" s="48">
+      <c r="L38" s="86">
         <f t="shared" si="17"/>
         <v>65</v>
       </c>
-      <c r="M38" s="48">
+      <c r="M38" s="86">
         <f t="shared" si="17"/>
         <v>65</v>
       </c>
-      <c r="N38" s="48">
+      <c r="N38" s="86">
         <f t="shared" si="16"/>
         <v>455</v>
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="F39" s="93">
+      <c r="F39" s="85">
         <f>B10</f>
         <v>43474</v>
       </c>
-      <c r="G39" s="48">
+      <c r="G39" s="86">
         <f t="shared" ref="G39:M39" si="18">SUM(G11,G13,G15,G17,G19,G21,G23,G25,G27,G29,G31,G33)</f>
         <v>60</v>
       </c>
-      <c r="H39" s="48">
+      <c r="H39" s="86">
         <f t="shared" si="18"/>
         <v>60</v>
       </c>
-      <c r="I39" s="48">
+      <c r="I39" s="86">
         <f t="shared" si="18"/>
         <v>60</v>
       </c>
-      <c r="J39" s="48">
+      <c r="J39" s="86">
         <f t="shared" si="18"/>
         <v>60</v>
       </c>
-      <c r="K39" s="48">
+      <c r="K39" s="86">
         <f t="shared" si="18"/>
         <v>60</v>
       </c>
-      <c r="L39" s="48">
+      <c r="L39" s="86">
         <f t="shared" si="18"/>
         <v>60</v>
       </c>
-      <c r="M39" s="48">
+      <c r="M39" s="86">
         <f t="shared" si="18"/>
         <v>60</v>
       </c>
-      <c r="N39" s="48">
+      <c r="N39" s="86">
         <f t="shared" si="16"/>
         <v>420</v>
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="F40" s="93">
+      <c r="F40" s="85">
         <f>B12</f>
         <v>43475</v>
       </c>
-      <c r="G40" s="48">
+      <c r="G40" s="86">
         <f t="shared" ref="G40:M40" si="19">SUM(G13,G15,G17,G19,G21,G23,G25,G27,G29,G31,G33)</f>
         <v>55</v>
       </c>
-      <c r="H40" s="48">
+      <c r="H40" s="86">
         <f t="shared" si="19"/>
         <v>55</v>
       </c>
-      <c r="I40" s="48">
+      <c r="I40" s="86">
         <f t="shared" si="19"/>
         <v>55</v>
       </c>
-      <c r="J40" s="48">
+      <c r="J40" s="86">
         <f t="shared" si="19"/>
         <v>55</v>
       </c>
-      <c r="K40" s="48">
+      <c r="K40" s="86">
         <f t="shared" si="19"/>
         <v>55</v>
       </c>
-      <c r="L40" s="48">
+      <c r="L40" s="86">
         <f t="shared" si="19"/>
         <v>55</v>
       </c>
-      <c r="M40" s="48">
+      <c r="M40" s="86">
         <f t="shared" si="19"/>
         <v>55</v>
       </c>
-      <c r="N40" s="48">
+      <c r="N40" s="86">
         <f t="shared" si="16"/>
         <v>385</v>
       </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="F41" s="93">
+      <c r="F41" s="85">
         <f>B14</f>
         <v>43476</v>
       </c>
-      <c r="G41" s="48">
+      <c r="G41" s="86">
         <f t="shared" ref="G41:M41" si="20">SUM(G15,G17,G19,G21,G23,G25,G27,G29,G31,G33)</f>
         <v>50</v>
       </c>
-      <c r="H41" s="48">
+      <c r="H41" s="86">
         <f t="shared" si="20"/>
         <v>50</v>
       </c>
-      <c r="I41" s="48">
+      <c r="I41" s="86">
         <f t="shared" si="20"/>
         <v>50</v>
       </c>
-      <c r="J41" s="48">
+      <c r="J41" s="86">
         <f t="shared" si="20"/>
         <v>50</v>
       </c>
-      <c r="K41" s="48">
+      <c r="K41" s="86">
         <f t="shared" si="20"/>
         <v>50</v>
       </c>
-      <c r="L41" s="48">
+      <c r="L41" s="86">
         <f t="shared" si="20"/>
         <v>50</v>
       </c>
-      <c r="M41" s="48">
+      <c r="M41" s="86">
         <f t="shared" si="20"/>
         <v>50</v>
       </c>
-      <c r="N41" s="48">
+      <c r="N41" s="86">
         <f t="shared" si="16"/>
         <v>350</v>
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="F42" s="93">
+      <c r="F42" s="85">
         <f>B16</f>
         <v>43477</v>
       </c>
-      <c r="G42" s="48">
+      <c r="G42" s="86">
         <f t="shared" ref="G42:M42" si="21">SUM(G17,G19,G21,G23,G25,G27,G29,G31,G33)</f>
         <v>45</v>
       </c>
-      <c r="H42" s="48">
+      <c r="H42" s="86">
         <f t="shared" si="21"/>
         <v>45</v>
       </c>
-      <c r="I42" s="48">
+      <c r="I42" s="86">
         <f t="shared" si="21"/>
         <v>45</v>
       </c>
-      <c r="J42" s="48">
+      <c r="J42" s="86">
         <f t="shared" si="21"/>
         <v>45</v>
       </c>
-      <c r="K42" s="48">
+      <c r="K42" s="86">
         <f t="shared" si="21"/>
         <v>45</v>
       </c>
-      <c r="L42" s="48">
+      <c r="L42" s="86">
         <f t="shared" si="21"/>
         <v>45</v>
       </c>
-      <c r="M42" s="48">
+      <c r="M42" s="86">
         <f t="shared" si="21"/>
         <v>45</v>
       </c>
-      <c r="N42" s="48">
+      <c r="N42" s="86">
         <f t="shared" si="16"/>
         <v>315</v>
       </c>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="F43" s="94">
+      <c r="F43" s="87">
         <f>B18</f>
         <v>43478</v>
       </c>
-      <c r="G43" s="49">
+      <c r="G43" s="88">
         <f t="shared" ref="G43:M43" si="22">SUM(G19,G21,G23,G25,G27,G29,G31,G33)</f>
         <v>40</v>
       </c>
-      <c r="H43" s="49">
+      <c r="H43" s="88">
         <f t="shared" si="22"/>
         <v>40</v>
       </c>
-      <c r="I43" s="49">
+      <c r="I43" s="88">
         <f t="shared" si="22"/>
         <v>40</v>
       </c>
-      <c r="J43" s="49">
+      <c r="J43" s="88">
         <f t="shared" si="22"/>
         <v>40</v>
       </c>
-      <c r="K43" s="49">
+      <c r="K43" s="88">
         <f t="shared" si="22"/>
         <v>40</v>
       </c>
-      <c r="L43" s="49">
+      <c r="L43" s="88">
         <f t="shared" si="22"/>
         <v>40</v>
       </c>
-      <c r="M43" s="49">
+      <c r="M43" s="88">
         <f t="shared" si="22"/>
         <v>40</v>
       </c>
-      <c r="N43" s="56">
+      <c r="N43" s="89">
         <f t="shared" si="16"/>
         <v>280</v>
       </c>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="F44" s="93">
+      <c r="F44" s="85">
         <f>B20</f>
         <v>43479</v>
       </c>
-      <c r="G44" s="50">
+      <c r="G44" s="90">
         <f t="shared" ref="G44:M44" si="23">SUM(G21,G23,G25,G27,G29,G31,G33)</f>
         <v>35</v>
       </c>
-      <c r="H44" s="50">
+      <c r="H44" s="90">
         <f t="shared" si="23"/>
         <v>35</v>
       </c>
-      <c r="I44" s="50">
+      <c r="I44" s="90">
         <f t="shared" si="23"/>
         <v>35</v>
       </c>
-      <c r="J44" s="50">
+      <c r="J44" s="90">
         <f t="shared" si="23"/>
         <v>35</v>
       </c>
-      <c r="K44" s="50">
+      <c r="K44" s="90">
         <f t="shared" si="23"/>
         <v>35</v>
       </c>
-      <c r="L44" s="50">
+      <c r="L44" s="90">
         <f t="shared" si="23"/>
         <v>35</v>
       </c>
-      <c r="M44" s="50">
+      <c r="M44" s="90">
         <f t="shared" si="23"/>
         <v>35</v>
       </c>
-      <c r="N44" s="48">
+      <c r="N44" s="86">
         <f t="shared" si="16"/>
         <v>245</v>
       </c>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="F45" s="93">
+      <c r="F45" s="85">
         <f>B22</f>
         <v>43480</v>
       </c>
-      <c r="G45" s="50">
+      <c r="G45" s="90">
         <f t="shared" ref="G45:M45" si="24">SUM(G23,G25,G27,G29,G31,G33)</f>
         <v>30</v>
       </c>
-      <c r="H45" s="50">
+      <c r="H45" s="90">
         <f t="shared" si="24"/>
         <v>30</v>
       </c>
-      <c r="I45" s="50">
+      <c r="I45" s="90">
         <f t="shared" si="24"/>
         <v>30</v>
       </c>
-      <c r="J45" s="50">
+      <c r="J45" s="90">
         <f t="shared" si="24"/>
         <v>30</v>
       </c>
-      <c r="K45" s="50">
+      <c r="K45" s="90">
         <f t="shared" si="24"/>
         <v>30</v>
       </c>
-      <c r="L45" s="50">
+      <c r="L45" s="90">
         <f t="shared" si="24"/>
         <v>30</v>
       </c>
-      <c r="M45" s="50">
+      <c r="M45" s="90">
         <f t="shared" si="24"/>
         <v>30</v>
       </c>
-      <c r="N45" s="48">
+      <c r="N45" s="86">
         <f t="shared" si="16"/>
         <v>210</v>
       </c>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="F46" s="93">
+      <c r="F46" s="85">
         <f>B24</f>
         <v>43481</v>
       </c>
-      <c r="G46" s="50">
+      <c r="G46" s="90">
         <f t="shared" ref="G46:M46" si="25">SUM(G25,G27,G29,G31,G33)</f>
         <v>25</v>
       </c>
-      <c r="H46" s="50">
+      <c r="H46" s="90">
         <f t="shared" si="25"/>
         <v>25</v>
       </c>
-      <c r="I46" s="50">
+      <c r="I46" s="90">
         <f t="shared" si="25"/>
         <v>25</v>
       </c>
-      <c r="J46" s="50">
+      <c r="J46" s="90">
         <f t="shared" si="25"/>
         <v>25</v>
       </c>
-      <c r="K46" s="50">
+      <c r="K46" s="90">
         <f t="shared" si="25"/>
         <v>25</v>
       </c>
-      <c r="L46" s="50">
+      <c r="L46" s="90">
         <f t="shared" si="25"/>
         <v>25</v>
       </c>
-      <c r="M46" s="50">
+      <c r="M46" s="90">
         <f t="shared" si="25"/>
         <v>25</v>
       </c>
-      <c r="N46" s="48">
+      <c r="N46" s="86">
         <f t="shared" si="16"/>
         <v>175</v>
       </c>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="F47" s="93">
+      <c r="F47" s="85">
         <f>B26</f>
         <v>43482</v>
       </c>
-      <c r="G47" s="50">
+      <c r="G47" s="90">
         <f t="shared" ref="G47:M47" si="26">SUM(G27,G29,G31,G33)</f>
         <v>20</v>
       </c>
-      <c r="H47" s="50">
+      <c r="H47" s="90">
         <f t="shared" si="26"/>
         <v>20</v>
       </c>
-      <c r="I47" s="50">
+      <c r="I47" s="90">
         <f t="shared" si="26"/>
         <v>20</v>
       </c>
-      <c r="J47" s="50">
+      <c r="J47" s="90">
         <f t="shared" si="26"/>
         <v>20</v>
       </c>
-      <c r="K47" s="50">
+      <c r="K47" s="90">
         <f t="shared" si="26"/>
         <v>20</v>
       </c>
-      <c r="L47" s="50">
+      <c r="L47" s="90">
         <f t="shared" si="26"/>
         <v>20</v>
       </c>
-      <c r="M47" s="50">
+      <c r="M47" s="90">
         <f t="shared" si="26"/>
         <v>20</v>
       </c>
-      <c r="N47" s="48">
+      <c r="N47" s="86">
         <f t="shared" si="16"/>
         <v>140</v>
       </c>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="F48" s="93">
+      <c r="F48" s="85">
         <f>B28</f>
         <v>43483</v>
       </c>
-      <c r="G48" s="50">
+      <c r="G48" s="90">
         <f t="shared" ref="G48:M48" si="27">SUM(G29,G31,G33)</f>
         <v>15</v>
       </c>
-      <c r="H48" s="50">
+      <c r="H48" s="90">
         <f t="shared" si="27"/>
         <v>15</v>
       </c>
-      <c r="I48" s="50">
+      <c r="I48" s="90">
         <f t="shared" si="27"/>
         <v>15</v>
       </c>
-      <c r="J48" s="50">
+      <c r="J48" s="90">
         <f t="shared" si="27"/>
         <v>15</v>
       </c>
-      <c r="K48" s="50">
+      <c r="K48" s="90">
         <f t="shared" si="27"/>
         <v>15</v>
       </c>
-      <c r="L48" s="50">
+      <c r="L48" s="90">
         <f t="shared" si="27"/>
         <v>15</v>
       </c>
-      <c r="M48" s="50">
+      <c r="M48" s="90">
         <f t="shared" si="27"/>
         <v>15</v>
       </c>
-      <c r="N48" s="48">
+      <c r="N48" s="86">
         <f t="shared" si="16"/>
         <v>105</v>
       </c>
     </row>
     <row r="49" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="F49" s="93">
+      <c r="F49" s="85">
         <f>B30</f>
         <v>43484</v>
       </c>
-      <c r="G49" s="48">
+      <c r="G49" s="86">
         <f t="shared" ref="G49:M49" si="28">SUM(G31,G33)</f>
         <v>10</v>
       </c>
-      <c r="H49" s="48">
+      <c r="H49" s="86">
         <f t="shared" si="28"/>
         <v>10</v>
       </c>
-      <c r="I49" s="48">
+      <c r="I49" s="86">
         <f t="shared" si="28"/>
         <v>10</v>
       </c>
-      <c r="J49" s="48">
+      <c r="J49" s="86">
         <f t="shared" si="28"/>
         <v>10</v>
       </c>
-      <c r="K49" s="48">
+      <c r="K49" s="86">
         <f t="shared" si="28"/>
         <v>10</v>
       </c>
-      <c r="L49" s="48">
+      <c r="L49" s="86">
         <f t="shared" si="28"/>
         <v>10</v>
       </c>
-      <c r="M49" s="48">
+      <c r="M49" s="86">
         <f t="shared" si="28"/>
         <v>10</v>
       </c>
-      <c r="N49" s="48">
+      <c r="N49" s="86">
         <f t="shared" si="16"/>
         <v>70</v>
       </c>
     </row>
     <row r="50" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="F50" s="93">
+      <c r="F50" s="85">
         <f>B32</f>
         <v>43485</v>
       </c>
-      <c r="G50" s="48">
+      <c r="G50" s="86">
         <f t="shared" ref="G50:M50" si="29">SUM(G33)</f>
         <v>5</v>
       </c>
-      <c r="H50" s="48">
+      <c r="H50" s="86">
         <f t="shared" si="29"/>
         <v>5</v>
       </c>
-      <c r="I50" s="48">
+      <c r="I50" s="86">
         <f t="shared" si="29"/>
         <v>5</v>
       </c>
-      <c r="J50" s="48">
+      <c r="J50" s="86">
         <f t="shared" si="29"/>
         <v>5</v>
       </c>
-      <c r="K50" s="48">
+      <c r="K50" s="86">
         <f t="shared" si="29"/>
         <v>5</v>
       </c>
-      <c r="L50" s="48">
+      <c r="L50" s="86">
         <f t="shared" si="29"/>
         <v>5</v>
       </c>
-      <c r="M50" s="48">
+      <c r="M50" s="86">
         <f t="shared" si="29"/>
         <v>5</v>
       </c>
-      <c r="N50" s="48">
+      <c r="N50" s="86">
         <f t="shared" si="16"/>
         <v>35</v>
       </c>
     </row>
     <row r="51" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="G51" s="46"/>
-      <c r="M51" s="46"/>
-      <c r="N51" s="46"/>
+      <c r="G51" s="82"/>
+      <c r="M51" s="82"/>
+      <c r="N51" s="82"/>
     </row>
     <row r="52" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="E52" s="70" t="s">
+      <c r="E52" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="F52" s="92">
+        <v>0</v>
+      </c>
+      <c r="G52" s="92">
+        <v>5</v>
+      </c>
+      <c r="H52" s="92">
+        <v>5</v>
+      </c>
+      <c r="I52" s="92">
+        <v>5</v>
+      </c>
+      <c r="J52" s="92">
+        <v>5</v>
+      </c>
+      <c r="K52" s="92">
+        <v>5</v>
+      </c>
+      <c r="L52" s="92">
+        <v>5</v>
+      </c>
+      <c r="M52" s="92">
+        <v>5</v>
+      </c>
+      <c r="N52" s="92"/>
+      <c r="O52" s="93"/>
+    </row>
+    <row r="53" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E53" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="F52" s="71">
-        <v>0</v>
-      </c>
-      <c r="G52" s="71">
-        <v>5</v>
-      </c>
-      <c r="H52" s="71">
-        <v>5</v>
-      </c>
-      <c r="I52" s="71">
-        <v>5</v>
-      </c>
-      <c r="J52" s="71">
-        <v>5</v>
-      </c>
-      <c r="K52" s="71">
-        <v>5</v>
-      </c>
-      <c r="L52" s="71">
-        <v>5</v>
-      </c>
-      <c r="M52" s="71">
-        <v>5</v>
-      </c>
-      <c r="N52" s="71"/>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="E53" s="70" t="s">
+      <c r="F53" s="92">
+        <v>5</v>
+      </c>
+      <c r="G53" s="92">
+        <v>0</v>
+      </c>
+      <c r="H53" s="92">
+        <v>0</v>
+      </c>
+      <c r="I53" s="92">
+        <v>0</v>
+      </c>
+      <c r="J53" s="92">
+        <v>0</v>
+      </c>
+      <c r="K53" s="92">
+        <v>0</v>
+      </c>
+      <c r="L53" s="92">
+        <v>0</v>
+      </c>
+      <c r="M53" s="92">
+        <v>0</v>
+      </c>
+      <c r="N53" s="92"/>
+      <c r="O53" s="93"/>
+    </row>
+    <row r="54" spans="5:15" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E54" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="F53" s="71">
-        <v>5</v>
-      </c>
-      <c r="G53" s="71">
-        <v>0</v>
-      </c>
-      <c r="H53" s="71">
-        <v>0</v>
-      </c>
-      <c r="I53" s="71">
-        <v>0</v>
-      </c>
-      <c r="J53" s="71">
-        <v>0</v>
-      </c>
-      <c r="K53" s="71">
-        <v>0</v>
-      </c>
-      <c r="L53" s="71">
-        <v>0</v>
-      </c>
-      <c r="M53" s="71">
-        <v>0</v>
-      </c>
-      <c r="N53" s="71"/>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="5:15" ht="15.6" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E54" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="F54" s="73">
+      <c r="F54" s="95">
         <v>3</v>
       </c>
-      <c r="G54" s="73">
+      <c r="G54" s="95">
         <v>3</v>
       </c>
-      <c r="H54" s="73">
+      <c r="H54" s="95">
         <v>3</v>
       </c>
-      <c r="I54" s="73">
+      <c r="I54" s="95">
         <v>3</v>
       </c>
-      <c r="J54" s="73">
+      <c r="J54" s="95">
         <v>3</v>
       </c>
-      <c r="K54" s="73">
+      <c r="K54" s="95">
         <v>3</v>
       </c>
-      <c r="L54" s="73">
+      <c r="L54" s="95">
         <v>3</v>
       </c>
-      <c r="M54" s="73">
+      <c r="M54" s="95">
         <v>3</v>
       </c>
-      <c r="N54" s="71"/>
-    </row>
-    <row r="55" spans="5:15" ht="15.6" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="E55" s="72"/>
-      <c r="F55" s="71">
+      <c r="N54" s="92"/>
+    </row>
+    <row r="55" spans="5:15" ht="17.399999999999999" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="E55" s="94"/>
+      <c r="F55" s="92">
         <f t="shared" ref="F55:L55" si="30">SUM(F52:F54)</f>
         <v>8</v>
       </c>
-      <c r="G55" s="71">
+      <c r="G55" s="92">
         <f>SUM(G52:G54)</f>
         <v>8</v>
       </c>
-      <c r="H55" s="71">
+      <c r="H55" s="92">
         <f>SUM(H52:H54)</f>
         <v>8</v>
       </c>
-      <c r="I55" s="71">
+      <c r="I55" s="92">
         <f>SUM(I52:I54)</f>
         <v>8</v>
       </c>
-      <c r="J55" s="71">
+      <c r="J55" s="92">
         <f>SUM(J52:J54)</f>
         <v>8</v>
       </c>
-      <c r="K55" s="71">
+      <c r="K55" s="92">
         <f t="shared" si="30"/>
         <v>8</v>
       </c>
-      <c r="L55" s="71">
+      <c r="L55" s="92">
         <f t="shared" si="30"/>
         <v>8</v>
       </c>
-      <c r="M55" s="71">
+      <c r="M55" s="92">
         <f>SUM(M52:M54)</f>
         <v>8</v>
       </c>
-      <c r="N55" s="71"/>
+      <c r="N55" s="92"/>
     </row>
     <row r="57" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="F57" s="57"/>
-      <c r="G57" s="57"/>
-      <c r="H57" s="57"/>
-      <c r="I57" s="57"/>
-      <c r="J57" s="57"/>
-      <c r="K57" s="57"/>
-      <c r="L57" s="57"/>
-      <c r="M57" s="57"/>
+      <c r="F57" s="96"/>
+      <c r="G57" s="96"/>
+      <c r="H57" s="96"/>
+      <c r="I57" s="96"/>
+      <c r="J57" s="96"/>
+      <c r="K57" s="96"/>
+      <c r="L57" s="96"/>
+      <c r="M57" s="96"/>
     </row>
     <row r="58" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="F58" s="57"/>
-      <c r="G58" s="57"/>
-      <c r="H58" s="57"/>
-      <c r="I58" s="57"/>
-      <c r="J58" s="57"/>
-      <c r="K58" s="57"/>
-      <c r="L58" s="57"/>
-      <c r="M58" s="57"/>
+      <c r="F58" s="96"/>
+      <c r="G58" s="96"/>
+      <c r="H58" s="96"/>
+      <c r="I58" s="96"/>
+      <c r="J58" s="96"/>
+      <c r="K58" s="96"/>
+      <c r="L58" s="96"/>
+      <c r="M58" s="96"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3759,7 +3763,10 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="1"/>
+  </cols>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3776,1823 +3783,1823 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.8" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" style="1" customWidth="1"/>
-    <col min="7" max="14" width="10.77734375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="59.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="6.21875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.88671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="6.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="2" customWidth="1"/>
+    <col min="7" max="14" width="10.77734375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="11.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="59.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B1" s="37" t="str">
+      <c r="B1" s="3" t="str">
         <f ca="1">RIGHT(CELL("filename",A2),LEN(CELL("filename",A2))-FIND("]",CELL("filename",A2)))</f>
         <v>Sprint1</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4">
+        <v>43472</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="G2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="37" t="s">
+    <row r="3" spans="1:16" ht="35.4" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="5"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="97" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B4" s="7"/>
+      <c r="F4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+    </row>
+    <row r="5" spans="1:16" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="86">
-        <v>43472</v>
-      </c>
-      <c r="C2" s="37"/>
-      <c r="G2" s="37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="32.4" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="14"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="92" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B4" s="4"/>
-      <c r="F4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="80" t="s">
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-    </row>
-    <row r="5" spans="1:16" ht="15.6" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="81" t="s">
+      <c r="H5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="82" t="s">
+      <c r="I5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="82" t="s">
+      <c r="J5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="82" t="s">
+      <c r="K5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="82" t="s">
+      <c r="L5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="82" t="s">
+      <c r="M5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="82" t="s">
+      <c r="N5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="83" t="s">
+      <c r="O5" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="O5" s="84" t="s">
+      <c r="P5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="P5" s="85" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B6" s="87">
+      <c r="B6" s="18">
         <f>$B$2</f>
         <v>43472</v>
       </c>
-      <c r="C6" s="11" t="str">
+      <c r="C6" s="19" t="str">
         <f>TEXT(B6,"ddd")</f>
         <v>Mon</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="21">
+        <v>-6</v>
+      </c>
+      <c r="F6" s="22"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="27"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="13">
-        <v>-6</v>
-      </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="51"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B7" s="88"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="22">
+      <c r="E7" s="31"/>
+      <c r="F7" s="32">
         <f>IF(F$53+$E6+F6&lt;0,0,F$53+$E6+F6)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="65">
+      <c r="G7" s="33">
         <f t="shared" ref="G7:M7" si="0">IF(G$52+$E6+G6&lt;0,0,G$52+$E6+G6)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I7" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J7" s="22">
+      <c r="J7" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K7" s="24">
+      <c r="K7" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L7" s="24">
+      <c r="L7" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M7" s="25">
+      <c r="M7" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N7" s="60">
+      <c r="N7" s="36">
         <f>SUM(G7:M7)</f>
         <v>0</v>
       </c>
-      <c r="O7" s="22">
+      <c r="O7" s="32">
         <f>N34</f>
         <v>168</v>
       </c>
-      <c r="P7" s="52"/>
-    </row>
-    <row r="8" spans="1:16" ht="30" x14ac:dyDescent="0.2">
-      <c r="B8" s="89">
+      <c r="P7" s="37"/>
+    </row>
+    <row r="8" spans="1:16" ht="33.6" x14ac:dyDescent="0.2">
+      <c r="B8" s="38">
         <f>$B$2+1</f>
         <v>43473</v>
       </c>
-      <c r="C8" s="9" t="str">
+      <c r="C8" s="39" t="str">
         <f>TEXT(B8,"ddd")</f>
         <v>Tue</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="6">
+      <c r="D8" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="41">
         <v>-6</v>
       </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="61"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="53"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="47"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B9" s="88"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="66">
+      <c r="B9" s="28"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="48">
         <f>IF(F$53+$E8+F8&lt;0,0,F$53+$E8+F8)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="74">
+      <c r="G9" s="49">
         <f t="shared" ref="G9:M9" si="1">IF(G$52+$E8+G8&lt;0,0,G$52+$E8+G8)</f>
         <v>0</v>
       </c>
-      <c r="H9" s="66">
+      <c r="H9" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I9" s="66">
+      <c r="I9" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J9" s="66">
+      <c r="J9" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K9" s="67">
+      <c r="K9" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L9" s="67">
+      <c r="L9" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M9" s="68">
+      <c r="M9" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N9" s="69">
+      <c r="N9" s="52">
         <f>SUM(G9:M9)</f>
         <v>0</v>
       </c>
-      <c r="O9" s="66">
+      <c r="O9" s="48">
         <f>O7-N7</f>
         <v>168</v>
       </c>
-      <c r="P9" s="54"/>
+      <c r="P9" s="53"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B10" s="89">
+      <c r="B10" s="38">
         <f>$B$2+2</f>
         <v>43474</v>
       </c>
-      <c r="C10" s="9" t="str">
+      <c r="C10" s="39" t="str">
         <f>TEXT(B10,"ddd")</f>
         <v>Wed</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="27">
+      <c r="D10" s="40"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="43">
         <v>-4</v>
       </c>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="53" t="s">
-        <v>33</v>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="47" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B11" s="88"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="22">
+      <c r="B11" s="28"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="32">
         <f>IF(F$53+$E10+F10&lt;0,0,F$53+$E10+F10)</f>
         <v>5</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="54">
         <f t="shared" ref="G11:M11" si="2">IF(G$52+$E10+G10&lt;0,0,G$52+$E10+G10)</f>
         <v>1</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11" s="32">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I11" s="32">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="J11" s="22">
+      <c r="J11" s="32">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="K11" s="24">
+      <c r="K11" s="34">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="L11" s="24">
+      <c r="L11" s="34">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="M11" s="25">
+      <c r="M11" s="35">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="N11" s="60">
+      <c r="N11" s="36">
         <f>SUM(G11:M11)</f>
         <v>31</v>
       </c>
-      <c r="O11" s="22">
+      <c r="O11" s="32">
         <f>O9-N9</f>
         <v>168</v>
       </c>
-      <c r="P11" s="52"/>
+      <c r="P11" s="37"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B12" s="89">
+      <c r="B12" s="38">
         <f>$B$2+3</f>
         <v>43475</v>
       </c>
-      <c r="C12" s="9" t="str">
+      <c r="C12" s="39" t="str">
         <f>TEXT(B12,"ddd")</f>
         <v>Thu</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="53"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="47"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B13" s="88"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="22">
+      <c r="B13" s="28"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="32">
         <f>IF(F$53+$E12+F12&lt;0,0,F$53+$E12+F12)</f>
         <v>5</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="54">
         <f>IF(G$52+$E12+G12&lt;0,0,G$52+$E12+G12)</f>
         <v>5</v>
       </c>
-      <c r="H13" s="22" t="s">
+      <c r="H13" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="I13" s="22">
+      <c r="I13" s="32">
         <f>IF(I$52+$E12+I12&lt;0,0,I$52+$E12+I12)</f>
         <v>5</v>
       </c>
-      <c r="J13" s="22">
+      <c r="J13" s="32">
         <f>IF(J$52+$E12+J12&lt;0,0,J$52+$E12+J12)</f>
         <v>5</v>
       </c>
-      <c r="K13" s="22">
+      <c r="K13" s="32">
         <f>IF(K$52+$E12+K12&lt;0,0,K$52+$E12+K12)</f>
         <v>5</v>
       </c>
-      <c r="L13" s="24">
+      <c r="L13" s="34">
         <f>IF(L$52+$E12+L12&lt;0,0,L$52+$E12+L12)</f>
         <v>5</v>
       </c>
-      <c r="M13" s="25">
+      <c r="M13" s="35">
         <f>IF(M$52+$E12+M12&lt;0,0,M$52+$E12+M12)</f>
         <v>5</v>
       </c>
-      <c r="N13" s="60">
+      <c r="N13" s="36">
         <f>SUM(G13:M13)</f>
         <v>30</v>
       </c>
-      <c r="O13" s="22">
+      <c r="O13" s="32">
         <f>O11-N11</f>
         <v>137</v>
       </c>
-      <c r="P13" s="52" t="s">
-        <v>34</v>
+      <c r="P13" s="37" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B14" s="90">
+      <c r="B14" s="56">
         <f>$B$2+4</f>
         <v>43476</v>
       </c>
-      <c r="C14" s="38" t="str">
+      <c r="C14" s="57" t="str">
         <f>TEXT(B14,"ddd")</f>
         <v>Fri</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="54"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="63"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="53"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B15" s="88"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="22">
+      <c r="B15" s="28"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="32">
         <f>IF(F$53+$E14+F14&lt;0,0,F$53+$E14+F14)</f>
         <v>5</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="54">
         <f t="shared" ref="G15:M15" si="3">IF(G$52+$E14+G14&lt;0,0,G$52+$E14+G14)</f>
         <v>5</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="32">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="I15" s="22">
+      <c r="I15" s="32">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="J15" s="22">
+      <c r="J15" s="32">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="K15" s="22">
+      <c r="K15" s="32">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="L15" s="24">
+      <c r="L15" s="34">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="M15" s="25">
+      <c r="M15" s="35">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="N15" s="60">
+      <c r="N15" s="36">
         <f>SUM(G15:M15)</f>
         <v>35</v>
       </c>
-      <c r="O15" s="22">
+      <c r="O15" s="32">
         <f>O13-N13</f>
         <v>107</v>
       </c>
-      <c r="P15" s="52"/>
+      <c r="P15" s="37"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B16" s="90">
+      <c r="B16" s="56">
         <f>$B$2+5</f>
         <v>43477</v>
       </c>
-      <c r="C16" s="38" t="str">
+      <c r="C16" s="57" t="str">
         <f>TEXT(B16,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="D16" s="39"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="54"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="53"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B17" s="88"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="22" t="s">
+      <c r="B17" s="28"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="23" t="s">
+      <c r="G17" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="H17" s="22" t="s">
+      <c r="H17" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="I17" s="22" t="s">
+      <c r="I17" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="J17" s="22" t="s">
+      <c r="J17" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="K17" s="22" t="s">
+      <c r="K17" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="L17" s="24" t="s">
+      <c r="L17" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="M17" s="25" t="s">
+      <c r="M17" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="N17" s="60">
+      <c r="N17" s="36">
         <f>SUM(G17:M17)</f>
         <v>0</v>
       </c>
-      <c r="O17" s="22">
+      <c r="O17" s="32">
         <f>O15-N15</f>
         <v>72</v>
       </c>
-      <c r="P17" s="52"/>
+      <c r="P17" s="37"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B18" s="90">
+      <c r="B18" s="56">
         <f>$B$2+6</f>
         <v>43478</v>
       </c>
-      <c r="C18" s="38" t="str">
+      <c r="C18" s="57" t="str">
         <f>TEXT(B18,"ddd")</f>
         <v>Sun</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="62"/>
-      <c r="O18" s="41"/>
-      <c r="P18" s="54"/>
-    </row>
-    <row r="19" spans="2:16" ht="15.6" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="91"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="I19" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="J19" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="K19" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="L19" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="M19" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="63">
+      <c r="D18" s="40"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="63"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="53"/>
+    </row>
+    <row r="19" spans="2:16" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="65"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="K19" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="L19" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="M19" s="72" t="s">
+        <v>5</v>
+      </c>
+      <c r="N19" s="73">
         <f>SUM(G19:M19)</f>
         <v>0</v>
       </c>
-      <c r="O19" s="30">
+      <c r="O19" s="69">
         <f>O17-N17</f>
         <v>72</v>
       </c>
-      <c r="P19" s="55"/>
+      <c r="P19" s="74"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B20" s="90">
+      <c r="B20" s="56">
         <f>$B$2+7</f>
         <v>43479</v>
       </c>
-      <c r="C20" s="38" t="str">
+      <c r="C20" s="57" t="str">
         <f>TEXT(B20,"ddd")</f>
         <v>Mon</v>
       </c>
-      <c r="D20" s="39"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="62"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="54"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="62"/>
+      <c r="N20" s="63"/>
+      <c r="O20" s="59"/>
+      <c r="P20" s="53"/>
     </row>
     <row r="21" spans="2:16" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="88"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="97" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="22" t="s">
+      <c r="B21" s="28"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="98" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="31"/>
+      <c r="F21" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="G21" s="23" t="s">
+      <c r="G21" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="22" t="s">
+      <c r="H21" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="I21" s="22" t="s">
+      <c r="I21" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="J21" s="22" t="s">
+      <c r="J21" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="24" t="s">
+      <c r="K21" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="L21" s="24" t="s">
+      <c r="L21" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="M21" s="25" t="s">
+      <c r="M21" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="N21" s="60">
+      <c r="N21" s="36">
         <f>SUM(G21:M21)</f>
         <v>0</v>
       </c>
-      <c r="O21" s="22">
+      <c r="O21" s="32">
         <f>O19-N19</f>
         <v>72</v>
       </c>
-      <c r="P21" s="52"/>
+      <c r="P21" s="37"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B22" s="89">
+      <c r="B22" s="38">
         <f>$B$2+8</f>
         <v>43480</v>
       </c>
-      <c r="C22" s="9" t="str">
+      <c r="C22" s="39" t="str">
         <f>TEXT(B22,"ddd")</f>
         <v>Tue</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26">
+      <c r="D22" s="40"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42">
         <v>-4</v>
       </c>
-      <c r="J22" s="26"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="61"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="53" t="s">
-        <v>35</v>
+      <c r="J22" s="42"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="47" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B23" s="88"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="22">
+      <c r="B23" s="28"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="32">
         <f>IF(F$53+$E22+F22&lt;0,0,F$53+$E22+F22)</f>
         <v>5</v>
       </c>
-      <c r="G23" s="23">
+      <c r="G23" s="54">
         <f t="shared" ref="G23:M23" si="4">IF(G$52+$E22+G22&lt;0,0,G$52+$E22+G22)</f>
         <v>5</v>
       </c>
-      <c r="H23" s="22">
+      <c r="H23" s="32">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="I23" s="22">
+      <c r="I23" s="32">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J23" s="22">
+      <c r="J23" s="32">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="K23" s="22">
+      <c r="K23" s="32">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="L23" s="24">
+      <c r="L23" s="34">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="M23" s="25">
+      <c r="M23" s="35">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="N23" s="60">
+      <c r="N23" s="36">
         <f>SUM(G23:M23)</f>
         <v>31</v>
       </c>
-      <c r="O23" s="22">
+      <c r="O23" s="32">
         <f>O21-N21</f>
         <v>72</v>
       </c>
-      <c r="P23" s="52"/>
+      <c r="P23" s="37"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B24" s="89">
+      <c r="B24" s="38">
         <f>$B$2+9</f>
         <v>43481</v>
       </c>
-      <c r="C24" s="9" t="str">
+      <c r="C24" s="39" t="str">
         <f>TEXT(B24,"ddd")</f>
         <v>Wed</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E24" s="6">
+      <c r="D24" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="41">
         <v>-4</v>
       </c>
-      <c r="F24" s="26"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="61"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="53"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="47"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B25" s="88"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="22">
+      <c r="B25" s="28"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="32">
         <f>IF(F$53+$E24+F24&lt;0,0,F$53+$E24+F24)</f>
         <v>1</v>
       </c>
-      <c r="G25" s="23">
+      <c r="G25" s="54">
         <f>IF(G$52+$E24+G24&lt;0,0,G$52+$E24+G24)</f>
         <v>1</v>
       </c>
-      <c r="H25" s="22">
+      <c r="H25" s="32">
         <f>IF(H$52+$E24+H24&lt;0,0,H$52+$E24+H24)</f>
         <v>1</v>
       </c>
-      <c r="I25" s="22">
+      <c r="I25" s="32">
         <f>IF(I$52+$E24+I24&lt;0,0,I$52+$E24+I24)</f>
         <v>1</v>
       </c>
-      <c r="J25" s="22" t="s">
+      <c r="J25" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="K25" s="24">
+      <c r="K25" s="34">
         <f>IF(K$52+$E24+K24&lt;0,0,K$52+$E24+K24)</f>
         <v>1</v>
       </c>
-      <c r="L25" s="24">
+      <c r="L25" s="34">
         <f>IF(L$52+$E24+L24&lt;0,0,L$52+$E24+L24)</f>
         <v>1</v>
       </c>
-      <c r="M25" s="25">
+      <c r="M25" s="35">
         <f>IF(M$52+$E24+M24&lt;0,0,M$52+$E24+M24)</f>
         <v>1</v>
       </c>
-      <c r="N25" s="60">
+      <c r="N25" s="36">
         <f>SUM(G25:M25)</f>
         <v>6</v>
       </c>
-      <c r="O25" s="22">
+      <c r="O25" s="32">
         <f>O23-N23</f>
         <v>41</v>
       </c>
-      <c r="P25" s="52" t="s">
-        <v>36</v>
+      <c r="P25" s="37" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B26" s="89">
+      <c r="B26" s="38">
         <f>$B$2+10</f>
         <v>43482</v>
       </c>
-      <c r="C26" s="9" t="str">
+      <c r="C26" s="39" t="str">
         <f>TEXT(B26,"ddd")</f>
         <v>Thu</v>
       </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="61"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="53"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="46"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="47"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B27" s="88"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="22">
+      <c r="B27" s="28"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="32">
         <f>IF(F$53+$E26+F26&lt;0,0,F$53+$E26+F26)</f>
         <v>5</v>
       </c>
-      <c r="G27" s="23">
+      <c r="G27" s="54">
         <f t="shared" ref="G27:M27" si="5">IF(G$52+$E26+G26&lt;0,0,G$52+$E26+G26)</f>
         <v>5</v>
       </c>
-      <c r="H27" s="22">
+      <c r="H27" s="32">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="I27" s="22">
+      <c r="I27" s="32">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="J27" s="22">
+      <c r="J27" s="32">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="K27" s="22">
+      <c r="K27" s="32">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="L27" s="24">
+      <c r="L27" s="34">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="M27" s="25">
+      <c r="M27" s="35">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="N27" s="60">
+      <c r="N27" s="36">
         <f>SUM(G27:M27)</f>
         <v>35</v>
       </c>
-      <c r="O27" s="22">
+      <c r="O27" s="32">
         <f>O25-N25</f>
         <v>35</v>
       </c>
-      <c r="P27" s="52"/>
+      <c r="P27" s="37"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B28" s="89">
+      <c r="B28" s="38">
         <f>$B$2+11</f>
         <v>43483</v>
       </c>
-      <c r="C28" s="9" t="str">
+      <c r="C28" s="39" t="str">
         <f>TEXT(B28,"ddd")</f>
         <v>Fri</v>
       </c>
-      <c r="D28" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" s="40">
+      <c r="D28" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="58">
         <v>-6</v>
       </c>
-      <c r="F28" s="41"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="43"/>
-      <c r="M28" s="44"/>
-      <c r="N28" s="61"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="54"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="61"/>
+      <c r="M28" s="62"/>
+      <c r="N28" s="46"/>
+      <c r="O28" s="44"/>
+      <c r="P28" s="53"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B29" s="88"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="22">
+      <c r="B29" s="28"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="32">
         <f>IF(F$53+$E28+F28&lt;0,0,F$53+$E28+F28)</f>
         <v>0</v>
       </c>
-      <c r="G29" s="23">
+      <c r="G29" s="54">
         <f t="shared" ref="G29:M29" si="6">IF(G$52+$E28+G28&lt;0,0,G$52+$E28+G28)</f>
         <v>0</v>
       </c>
-      <c r="H29" s="22">
+      <c r="H29" s="32">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I29" s="22">
+      <c r="I29" s="32">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J29" s="22">
+      <c r="J29" s="32">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K29" s="24">
+      <c r="K29" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L29" s="24">
+      <c r="L29" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M29" s="25">
+      <c r="M29" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N29" s="60">
+      <c r="N29" s="36">
         <f>SUM(G29:M29)</f>
         <v>0</v>
       </c>
-      <c r="O29" s="24">
+      <c r="O29" s="34">
         <f>O27-N27</f>
         <v>0</v>
       </c>
-      <c r="P29" s="52"/>
+      <c r="P29" s="37"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B30" s="90">
+      <c r="B30" s="56">
         <f>$B$2+12</f>
         <v>43484</v>
       </c>
-      <c r="C30" s="38" t="str">
+      <c r="C30" s="57" t="str">
         <f>TEXT(B30,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="D30" s="39"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="41"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="43"/>
-      <c r="M30" s="44"/>
-      <c r="N30" s="62"/>
-      <c r="O30" s="41"/>
-      <c r="P30" s="54"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="59"/>
+      <c r="K30" s="59"/>
+      <c r="L30" s="61"/>
+      <c r="M30" s="62"/>
+      <c r="N30" s="63"/>
+      <c r="O30" s="59"/>
+      <c r="P30" s="53"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B31" s="88"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="22" t="s">
+      <c r="B31" s="28"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="G31" s="23" t="s">
+      <c r="G31" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="H31" s="22" t="s">
+      <c r="H31" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="I31" s="22" t="s">
+      <c r="I31" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="J31" s="22" t="s">
+      <c r="J31" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="K31" s="24" t="s">
+      <c r="K31" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="L31" s="24" t="s">
+      <c r="L31" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="M31" s="25" t="s">
+      <c r="M31" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="N31" s="60">
+      <c r="N31" s="36">
         <f>SUM(G31:M31)</f>
         <v>0</v>
       </c>
-      <c r="O31" s="22">
+      <c r="O31" s="32">
         <f>O29-N29</f>
         <v>0</v>
       </c>
-      <c r="P31" s="52"/>
+      <c r="P31" s="37"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B32" s="89">
+      <c r="B32" s="38">
         <f>$B$2+13</f>
         <v>43485</v>
       </c>
-      <c r="C32" s="9" t="str">
+      <c r="C32" s="39" t="str">
         <f>TEXT(B32,"ddd")</f>
         <v>Sun</v>
       </c>
-      <c r="D32" s="39"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="43"/>
-      <c r="M32" s="44"/>
-      <c r="N32" s="61"/>
-      <c r="O32" s="28"/>
-      <c r="P32" s="54"/>
-    </row>
-    <row r="33" spans="2:16" ht="15.6" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="91"/>
-      <c r="C33" s="76"/>
-      <c r="D33" s="77"/>
-      <c r="E33" s="78"/>
-      <c r="F33" s="30" t="s">
+      <c r="D32" s="64"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="59"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="61"/>
+      <c r="M32" s="62"/>
+      <c r="N32" s="46"/>
+      <c r="O32" s="44"/>
+      <c r="P32" s="53"/>
+    </row>
+    <row r="33" spans="2:16" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="65"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="G33" s="34" t="s">
+      <c r="G33" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="H33" s="47" t="s">
+      <c r="H33" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="I33" s="47" t="s">
+      <c r="I33" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="J33" s="47" t="s">
+      <c r="J33" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K33" s="35" t="s">
+      <c r="K33" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="L33" s="35" t="s">
+      <c r="L33" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="M33" s="64" t="s">
+      <c r="M33" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="N33" s="63">
+      <c r="N33" s="73">
         <f>SUM(G33:M33)</f>
         <v>0</v>
       </c>
-      <c r="O33" s="32">
+      <c r="O33" s="71">
         <f>O31-N31</f>
         <v>0</v>
       </c>
-      <c r="P33" s="55"/>
+      <c r="P33" s="74"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="F34" s="36"/>
-      <c r="G34" s="36">
+      <c r="F34" s="80"/>
+      <c r="G34" s="80">
         <f t="shared" ref="G34:M34" si="7">SUM(G7,G9,G11,G13,G15,G17,G19,G21,G23,G25,G27,G29,G31,G33)</f>
         <v>22</v>
       </c>
-      <c r="H34" s="36">
+      <c r="H34" s="80">
         <f t="shared" si="7"/>
         <v>21</v>
       </c>
-      <c r="I34" s="36">
+      <c r="I34" s="80">
         <f t="shared" si="7"/>
         <v>22</v>
       </c>
-      <c r="J34" s="36">
+      <c r="J34" s="80">
         <f t="shared" si="7"/>
         <v>25</v>
       </c>
-      <c r="K34" s="36">
+      <c r="K34" s="80">
         <f t="shared" si="7"/>
         <v>26</v>
       </c>
-      <c r="L34" s="36">
+      <c r="L34" s="80">
         <f t="shared" si="7"/>
         <v>26</v>
       </c>
-      <c r="M34" s="36">
+      <c r="M34" s="80">
         <f t="shared" si="7"/>
         <v>26</v>
       </c>
-      <c r="N34" s="45">
+      <c r="N34" s="81">
         <f>SUM(N7,N13,N9,N11,N15,N17,N19,N21,N23,N25,N27,N29,N31,N33)</f>
         <v>168</v>
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="G35" s="46"/>
-      <c r="M35" s="46"/>
-      <c r="N35" s="46"/>
-    </row>
-    <row r="36" spans="2:16" ht="15.6" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F36" s="96"/>
-      <c r="G36" s="95" t="s">
+      <c r="G35" s="82"/>
+      <c r="M35" s="82"/>
+      <c r="N35" s="82"/>
+    </row>
+    <row r="36" spans="2:16" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F36" s="83"/>
+      <c r="G36" s="84" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H36" s="82" t="s">
+      <c r="I36" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I36" s="82" t="s">
+      <c r="J36" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J36" s="82" t="s">
+      <c r="K36" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="K36" s="82" t="s">
+      <c r="L36" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="L36" s="82" t="s">
+      <c r="M36" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="M36" s="82" t="s">
-        <v>20</v>
-      </c>
-      <c r="N36" s="46"/>
+      <c r="N36" s="82"/>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="F37" s="93">
+      <c r="F37" s="85">
         <f>B6</f>
         <v>43472</v>
       </c>
-      <c r="G37" s="48">
+      <c r="G37" s="86">
         <f t="shared" ref="G37:M37" si="8">SUM(G7,G9,G11,G13,G15,G17,G19,G21,G23,G25,G27,G29,G31,G33)</f>
         <v>22</v>
       </c>
-      <c r="H37" s="48">
+      <c r="H37" s="86">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="I37" s="48">
+      <c r="I37" s="86">
         <f t="shared" si="8"/>
         <v>22</v>
       </c>
-      <c r="J37" s="48">
+      <c r="J37" s="86">
         <f t="shared" si="8"/>
         <v>25</v>
       </c>
-      <c r="K37" s="48">
+      <c r="K37" s="86">
         <f t="shared" si="8"/>
         <v>26</v>
       </c>
-      <c r="L37" s="48">
+      <c r="L37" s="86">
         <f t="shared" si="8"/>
         <v>26</v>
       </c>
-      <c r="M37" s="48">
+      <c r="M37" s="86">
         <f t="shared" si="8"/>
         <v>26</v>
       </c>
-      <c r="N37" s="48">
+      <c r="N37" s="86">
         <f t="shared" ref="N37:N50" si="9">SUM(G37:M37)</f>
         <v>168</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="F38" s="93">
+      <c r="F38" s="85">
         <f>B8</f>
         <v>43473</v>
       </c>
-      <c r="G38" s="48">
+      <c r="G38" s="86">
         <f t="shared" ref="G38:M38" si="10">SUM(G9,G11,G13,G15,G17,G19,G21,G23,G25,G27,G29,G31,G33)</f>
         <v>22</v>
       </c>
-      <c r="H38" s="48">
+      <c r="H38" s="86">
         <f t="shared" si="10"/>
         <v>21</v>
       </c>
-      <c r="I38" s="48">
+      <c r="I38" s="86">
         <f t="shared" si="10"/>
         <v>22</v>
       </c>
-      <c r="J38" s="48">
+      <c r="J38" s="86">
         <f t="shared" si="10"/>
         <v>25</v>
       </c>
-      <c r="K38" s="48">
+      <c r="K38" s="86">
         <f t="shared" si="10"/>
         <v>26</v>
       </c>
-      <c r="L38" s="48">
+      <c r="L38" s="86">
         <f t="shared" si="10"/>
         <v>26</v>
       </c>
-      <c r="M38" s="48">
+      <c r="M38" s="86">
         <f t="shared" si="10"/>
         <v>26</v>
       </c>
-      <c r="N38" s="48">
+      <c r="N38" s="86">
         <f t="shared" si="9"/>
         <v>168</v>
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="F39" s="93">
+      <c r="F39" s="85">
         <f>B10</f>
         <v>43474</v>
       </c>
-      <c r="G39" s="48">
+      <c r="G39" s="86">
         <f t="shared" ref="G39:M39" si="11">SUM(G11,G13,G15,G17,G19,G21,G23,G25,G27,G29,G31,G33)</f>
         <v>22</v>
       </c>
-      <c r="H39" s="48">
+      <c r="H39" s="86">
         <f t="shared" si="11"/>
         <v>21</v>
       </c>
-      <c r="I39" s="48">
+      <c r="I39" s="86">
         <f t="shared" si="11"/>
         <v>22</v>
       </c>
-      <c r="J39" s="48">
+      <c r="J39" s="86">
         <f t="shared" si="11"/>
         <v>25</v>
       </c>
-      <c r="K39" s="48">
+      <c r="K39" s="86">
         <f t="shared" si="11"/>
         <v>26</v>
       </c>
-      <c r="L39" s="48">
+      <c r="L39" s="86">
         <f t="shared" si="11"/>
         <v>26</v>
       </c>
-      <c r="M39" s="48">
+      <c r="M39" s="86">
         <f t="shared" si="11"/>
         <v>26</v>
       </c>
-      <c r="N39" s="48">
+      <c r="N39" s="86">
         <f t="shared" si="9"/>
         <v>168</v>
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="F40" s="93">
+      <c r="F40" s="85">
         <f>B12</f>
         <v>43475</v>
       </c>
-      <c r="G40" s="48">
+      <c r="G40" s="86">
         <f t="shared" ref="G40:M40" si="12">SUM(G13,G15,G17,G19,G21,G23,G25,G27,G29,G31,G33)</f>
         <v>21</v>
       </c>
-      <c r="H40" s="48">
+      <c r="H40" s="86">
         <f t="shared" si="12"/>
         <v>16</v>
       </c>
-      <c r="I40" s="48">
+      <c r="I40" s="86">
         <f t="shared" si="12"/>
         <v>17</v>
       </c>
-      <c r="J40" s="48">
+      <c r="J40" s="86">
         <f t="shared" si="12"/>
         <v>20</v>
       </c>
-      <c r="K40" s="48">
+      <c r="K40" s="86">
         <f t="shared" si="12"/>
         <v>21</v>
       </c>
-      <c r="L40" s="48">
+      <c r="L40" s="86">
         <f t="shared" si="12"/>
         <v>21</v>
       </c>
-      <c r="M40" s="48">
+      <c r="M40" s="86">
         <f t="shared" si="12"/>
         <v>21</v>
       </c>
-      <c r="N40" s="48">
+      <c r="N40" s="86">
         <f t="shared" si="9"/>
         <v>137</v>
       </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="F41" s="93">
+      <c r="F41" s="85">
         <f>B14</f>
         <v>43476</v>
       </c>
-      <c r="G41" s="48">
+      <c r="G41" s="86">
         <f t="shared" ref="G41:M41" si="13">SUM(G15,G17,G19,G21,G23,G25,G27,G29,G31,G33)</f>
         <v>16</v>
       </c>
-      <c r="H41" s="48">
+      <c r="H41" s="86">
         <f t="shared" si="13"/>
         <v>16</v>
       </c>
-      <c r="I41" s="48">
+      <c r="I41" s="86">
         <f t="shared" si="13"/>
         <v>12</v>
       </c>
-      <c r="J41" s="48">
+      <c r="J41" s="86">
         <f t="shared" si="13"/>
         <v>15</v>
       </c>
-      <c r="K41" s="48">
+      <c r="K41" s="86">
         <f t="shared" si="13"/>
         <v>16</v>
       </c>
-      <c r="L41" s="48">
+      <c r="L41" s="86">
         <f t="shared" si="13"/>
         <v>16</v>
       </c>
-      <c r="M41" s="48">
+      <c r="M41" s="86">
         <f t="shared" si="13"/>
         <v>16</v>
       </c>
-      <c r="N41" s="48">
+      <c r="N41" s="86">
         <f t="shared" si="9"/>
         <v>107</v>
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="F42" s="93">
+      <c r="F42" s="85">
         <f>B16</f>
         <v>43477</v>
       </c>
-      <c r="G42" s="48">
+      <c r="G42" s="86">
         <f t="shared" ref="G42:M42" si="14">SUM(G17,G19,G21,G23,G25,G27,G29,G31,G33)</f>
         <v>11</v>
       </c>
-      <c r="H42" s="48">
+      <c r="H42" s="86">
         <f t="shared" si="14"/>
         <v>11</v>
       </c>
-      <c r="I42" s="48">
+      <c r="I42" s="86">
         <f t="shared" si="14"/>
         <v>7</v>
       </c>
-      <c r="J42" s="48">
+      <c r="J42" s="86">
         <f t="shared" si="14"/>
         <v>10</v>
       </c>
-      <c r="K42" s="48">
+      <c r="K42" s="86">
         <f t="shared" si="14"/>
         <v>11</v>
       </c>
-      <c r="L42" s="48">
+      <c r="L42" s="86">
         <f t="shared" si="14"/>
         <v>11</v>
       </c>
-      <c r="M42" s="48">
+      <c r="M42" s="86">
         <f t="shared" si="14"/>
         <v>11</v>
       </c>
-      <c r="N42" s="48">
+      <c r="N42" s="86">
         <f t="shared" si="9"/>
         <v>72</v>
       </c>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="F43" s="94">
+      <c r="F43" s="87">
         <f>B18</f>
         <v>43478</v>
       </c>
-      <c r="G43" s="49">
+      <c r="G43" s="88">
         <f t="shared" ref="G43:M43" si="15">SUM(G19,G21,G23,G25,G27,G29,G31,G33)</f>
         <v>11</v>
       </c>
-      <c r="H43" s="49">
+      <c r="H43" s="88">
         <f t="shared" si="15"/>
         <v>11</v>
       </c>
-      <c r="I43" s="49">
+      <c r="I43" s="88">
         <f t="shared" si="15"/>
         <v>7</v>
       </c>
-      <c r="J43" s="49">
+      <c r="J43" s="88">
         <f t="shared" si="15"/>
         <v>10</v>
       </c>
-      <c r="K43" s="49">
+      <c r="K43" s="88">
         <f t="shared" si="15"/>
         <v>11</v>
       </c>
-      <c r="L43" s="49">
+      <c r="L43" s="88">
         <f t="shared" si="15"/>
         <v>11</v>
       </c>
-      <c r="M43" s="49">
+      <c r="M43" s="88">
         <f t="shared" si="15"/>
         <v>11</v>
       </c>
-      <c r="N43" s="56">
+      <c r="N43" s="89">
         <f t="shared" si="9"/>
         <v>72</v>
       </c>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="F44" s="93">
+      <c r="F44" s="85">
         <f>B20</f>
         <v>43479</v>
       </c>
-      <c r="G44" s="50">
+      <c r="G44" s="90">
         <f t="shared" ref="G44:M44" si="16">SUM(G21,G23,G25,G27,G29,G31,G33)</f>
         <v>11</v>
       </c>
-      <c r="H44" s="50">
+      <c r="H44" s="90">
         <f t="shared" si="16"/>
         <v>11</v>
       </c>
-      <c r="I44" s="50">
+      <c r="I44" s="90">
         <f t="shared" si="16"/>
         <v>7</v>
       </c>
-      <c r="J44" s="50">
+      <c r="J44" s="90">
         <f t="shared" si="16"/>
         <v>10</v>
       </c>
-      <c r="K44" s="50">
+      <c r="K44" s="90">
         <f t="shared" si="16"/>
         <v>11</v>
       </c>
-      <c r="L44" s="50">
+      <c r="L44" s="90">
         <f t="shared" si="16"/>
         <v>11</v>
       </c>
-      <c r="M44" s="50">
+      <c r="M44" s="90">
         <f t="shared" si="16"/>
         <v>11</v>
       </c>
-      <c r="N44" s="48">
+      <c r="N44" s="86">
         <f t="shared" si="9"/>
         <v>72</v>
       </c>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="F45" s="93">
+      <c r="F45" s="85">
         <f>B22</f>
         <v>43480</v>
       </c>
-      <c r="G45" s="50">
+      <c r="G45" s="90">
         <f t="shared" ref="G45:M45" si="17">SUM(G23,G25,G27,G29,G31,G33)</f>
         <v>11</v>
       </c>
-      <c r="H45" s="50">
+      <c r="H45" s="90">
         <f t="shared" si="17"/>
         <v>11</v>
       </c>
-      <c r="I45" s="50">
+      <c r="I45" s="90">
         <f t="shared" si="17"/>
         <v>7</v>
       </c>
-      <c r="J45" s="50">
+      <c r="J45" s="90">
         <f t="shared" si="17"/>
         <v>10</v>
       </c>
-      <c r="K45" s="50">
+      <c r="K45" s="90">
         <f t="shared" si="17"/>
         <v>11</v>
       </c>
-      <c r="L45" s="50">
+      <c r="L45" s="90">
         <f t="shared" si="17"/>
         <v>11</v>
       </c>
-      <c r="M45" s="50">
+      <c r="M45" s="90">
         <f t="shared" si="17"/>
         <v>11</v>
       </c>
-      <c r="N45" s="48">
+      <c r="N45" s="86">
         <f t="shared" si="9"/>
         <v>72</v>
       </c>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="F46" s="93">
+      <c r="F46" s="85">
         <f>B24</f>
         <v>43481</v>
       </c>
-      <c r="G46" s="50">
+      <c r="G46" s="90">
         <f t="shared" ref="G46:M46" si="18">SUM(G25,G27,G29,G31,G33)</f>
         <v>6</v>
       </c>
-      <c r="H46" s="50">
+      <c r="H46" s="90">
         <f t="shared" si="18"/>
         <v>6</v>
       </c>
-      <c r="I46" s="50">
+      <c r="I46" s="90">
         <f t="shared" si="18"/>
         <v>6</v>
       </c>
-      <c r="J46" s="50">
+      <c r="J46" s="90">
         <f t="shared" si="18"/>
         <v>5</v>
       </c>
-      <c r="K46" s="50">
+      <c r="K46" s="90">
         <f t="shared" si="18"/>
         <v>6</v>
       </c>
-      <c r="L46" s="50">
+      <c r="L46" s="90">
         <f t="shared" si="18"/>
         <v>6</v>
       </c>
-      <c r="M46" s="50">
+      <c r="M46" s="90">
         <f t="shared" si="18"/>
         <v>6</v>
       </c>
-      <c r="N46" s="48">
+      <c r="N46" s="86">
         <f t="shared" si="9"/>
         <v>41</v>
       </c>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="F47" s="93">
+      <c r="F47" s="85">
         <f>B26</f>
         <v>43482</v>
       </c>
-      <c r="G47" s="50">
+      <c r="G47" s="90">
         <f t="shared" ref="G47:M47" si="19">SUM(G27,G29,G31,G33)</f>
         <v>5</v>
       </c>
-      <c r="H47" s="50">
+      <c r="H47" s="90">
         <f t="shared" si="19"/>
         <v>5</v>
       </c>
-      <c r="I47" s="50">
+      <c r="I47" s="90">
         <f t="shared" si="19"/>
         <v>5</v>
       </c>
-      <c r="J47" s="50">
+      <c r="J47" s="90">
         <f t="shared" si="19"/>
         <v>5</v>
       </c>
-      <c r="K47" s="50">
+      <c r="K47" s="90">
         <f t="shared" si="19"/>
         <v>5</v>
       </c>
-      <c r="L47" s="50">
+      <c r="L47" s="90">
         <f t="shared" si="19"/>
         <v>5</v>
       </c>
-      <c r="M47" s="50">
+      <c r="M47" s="90">
         <f t="shared" si="19"/>
         <v>5</v>
       </c>
-      <c r="N47" s="48">
+      <c r="N47" s="86">
         <f t="shared" si="9"/>
         <v>35</v>
       </c>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="F48" s="93">
+      <c r="F48" s="85">
         <f>B28</f>
         <v>43483</v>
       </c>
-      <c r="G48" s="50">
+      <c r="G48" s="90">
         <f t="shared" ref="G48:M48" si="20">SUM(G29,G31,G33)</f>
         <v>0</v>
       </c>
-      <c r="H48" s="50">
+      <c r="H48" s="90">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="I48" s="50">
+      <c r="I48" s="90">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="J48" s="50">
+      <c r="J48" s="90">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="K48" s="50">
+      <c r="K48" s="90">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="L48" s="50">
+      <c r="L48" s="90">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="M48" s="50">
+      <c r="M48" s="90">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="N48" s="48">
+      <c r="N48" s="86">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="F49" s="93">
+      <c r="F49" s="85">
         <f>B30</f>
         <v>43484</v>
       </c>
-      <c r="G49" s="48">
+      <c r="G49" s="86">
         <f t="shared" ref="G49:M49" si="21">SUM(G31,G33)</f>
         <v>0</v>
       </c>
-      <c r="H49" s="48">
+      <c r="H49" s="86">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I49" s="48">
+      <c r="I49" s="86">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="J49" s="48">
+      <c r="J49" s="86">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="K49" s="48">
+      <c r="K49" s="86">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="L49" s="48">
+      <c r="L49" s="86">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="M49" s="48">
+      <c r="M49" s="86">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="N49" s="48">
+      <c r="N49" s="86">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="F50" s="93">
+      <c r="F50" s="85">
         <f>B32</f>
         <v>43485</v>
       </c>
-      <c r="G50" s="48">
+      <c r="G50" s="86">
         <f t="shared" ref="G50:M50" si="22">SUM(G33)</f>
         <v>0</v>
       </c>
-      <c r="H50" s="48">
+      <c r="H50" s="86">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="I50" s="48">
+      <c r="I50" s="86">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="J50" s="48">
+      <c r="J50" s="86">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="K50" s="48">
+      <c r="K50" s="86">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="L50" s="48">
+      <c r="L50" s="86">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="M50" s="48">
+      <c r="M50" s="86">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="N50" s="48">
+      <c r="N50" s="86">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="G51" s="46"/>
-      <c r="M51" s="46"/>
-      <c r="N51" s="46"/>
+      <c r="G51" s="82"/>
+      <c r="M51" s="82"/>
+      <c r="N51" s="82"/>
     </row>
     <row r="52" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="E52" s="70" t="s">
+      <c r="E52" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="F52" s="92">
+        <v>0</v>
+      </c>
+      <c r="G52" s="92">
+        <v>5</v>
+      </c>
+      <c r="H52" s="92">
+        <v>5</v>
+      </c>
+      <c r="I52" s="92">
+        <v>5</v>
+      </c>
+      <c r="J52" s="92">
+        <v>5</v>
+      </c>
+      <c r="K52" s="92">
+        <v>5</v>
+      </c>
+      <c r="L52" s="92">
+        <v>5</v>
+      </c>
+      <c r="M52" s="92">
+        <v>5</v>
+      </c>
+      <c r="N52" s="92"/>
+      <c r="O52" s="93"/>
+    </row>
+    <row r="53" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E53" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="F52" s="71">
-        <v>0</v>
-      </c>
-      <c r="G52" s="71">
-        <v>5</v>
-      </c>
-      <c r="H52" s="71">
-        <v>5</v>
-      </c>
-      <c r="I52" s="71">
-        <v>5</v>
-      </c>
-      <c r="J52" s="71">
-        <v>5</v>
-      </c>
-      <c r="K52" s="71">
-        <v>5</v>
-      </c>
-      <c r="L52" s="71">
-        <v>5</v>
-      </c>
-      <c r="M52" s="71">
-        <v>5</v>
-      </c>
-      <c r="N52" s="71"/>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="E53" s="70" t="s">
+      <c r="F53" s="92">
+        <v>5</v>
+      </c>
+      <c r="G53" s="92">
+        <v>0</v>
+      </c>
+      <c r="H53" s="92">
+        <v>0</v>
+      </c>
+      <c r="I53" s="92">
+        <v>0</v>
+      </c>
+      <c r="J53" s="92">
+        <v>0</v>
+      </c>
+      <c r="K53" s="92">
+        <v>0</v>
+      </c>
+      <c r="L53" s="92">
+        <v>0</v>
+      </c>
+      <c r="M53" s="92">
+        <v>0</v>
+      </c>
+      <c r="N53" s="92"/>
+      <c r="O53" s="93"/>
+    </row>
+    <row r="54" spans="5:15" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E54" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="F53" s="71">
-        <v>5</v>
-      </c>
-      <c r="G53" s="71">
-        <v>0</v>
-      </c>
-      <c r="H53" s="71">
-        <v>0</v>
-      </c>
-      <c r="I53" s="71">
-        <v>0</v>
-      </c>
-      <c r="J53" s="71">
-        <v>0</v>
-      </c>
-      <c r="K53" s="71">
-        <v>0</v>
-      </c>
-      <c r="L53" s="71">
-        <v>0</v>
-      </c>
-      <c r="M53" s="71">
-        <v>0</v>
-      </c>
-      <c r="N53" s="71"/>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="5:15" ht="15.6" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E54" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="F54" s="73">
+      <c r="F54" s="95">
         <v>3</v>
       </c>
-      <c r="G54" s="73">
+      <c r="G54" s="95">
         <v>3</v>
       </c>
-      <c r="H54" s="73">
+      <c r="H54" s="95">
         <v>3</v>
       </c>
-      <c r="I54" s="73">
+      <c r="I54" s="95">
         <v>3</v>
       </c>
-      <c r="J54" s="73">
+      <c r="J54" s="95">
         <v>3</v>
       </c>
-      <c r="K54" s="73">
+      <c r="K54" s="95">
         <v>3</v>
       </c>
-      <c r="L54" s="73">
+      <c r="L54" s="95">
         <v>3</v>
       </c>
-      <c r="M54" s="73">
+      <c r="M54" s="95">
         <v>3</v>
       </c>
-      <c r="N54" s="71"/>
-    </row>
-    <row r="55" spans="5:15" ht="15.6" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="E55" s="72"/>
-      <c r="F55" s="71">
+      <c r="N54" s="92"/>
+    </row>
+    <row r="55" spans="5:15" ht="17.399999999999999" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="E55" s="94"/>
+      <c r="F55" s="92">
         <f t="shared" ref="F55:L55" si="23">SUM(F52:F54)</f>
         <v>8</v>
       </c>
-      <c r="G55" s="71">
+      <c r="G55" s="92">
         <f>SUM(G52:G54)</f>
         <v>8</v>
       </c>
-      <c r="H55" s="71">
+      <c r="H55" s="92">
         <f>SUM(H52:H54)</f>
         <v>8</v>
       </c>
-      <c r="I55" s="71">
+      <c r="I55" s="92">
         <f>SUM(I52:I54)</f>
         <v>8</v>
       </c>
-      <c r="J55" s="71">
+      <c r="J55" s="92">
         <f>SUM(J52:J54)</f>
         <v>8</v>
       </c>
-      <c r="K55" s="71">
+      <c r="K55" s="92">
         <f t="shared" si="23"/>
         <v>8</v>
       </c>
-      <c r="L55" s="71">
+      <c r="L55" s="92">
         <f t="shared" si="23"/>
         <v>8</v>
       </c>
-      <c r="M55" s="71">
+      <c r="M55" s="92">
         <f>SUM(M52:M54)</f>
         <v>8</v>
       </c>
-      <c r="N55" s="71"/>
+      <c r="N55" s="92"/>
     </row>
     <row r="57" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="F57" s="57"/>
-      <c r="G57" s="57"/>
-      <c r="H57" s="57"/>
-      <c r="I57" s="57"/>
-      <c r="J57" s="57"/>
-      <c r="K57" s="57"/>
-      <c r="L57" s="57"/>
-      <c r="M57" s="57"/>
+      <c r="F57" s="96"/>
+      <c r="G57" s="96"/>
+      <c r="H57" s="96"/>
+      <c r="I57" s="96"/>
+      <c r="J57" s="96"/>
+      <c r="K57" s="96"/>
+      <c r="L57" s="96"/>
+      <c r="M57" s="96"/>
     </row>
     <row r="58" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="F58" s="57"/>
-      <c r="G58" s="57"/>
-      <c r="H58" s="57"/>
-      <c r="I58" s="57"/>
-      <c r="J58" s="57"/>
-      <c r="K58" s="57"/>
-      <c r="L58" s="57"/>
-      <c r="M58" s="57"/>
+      <c r="F58" s="96"/>
+      <c r="G58" s="96"/>
+      <c r="H58" s="96"/>
+      <c r="I58" s="96"/>
+      <c r="J58" s="96"/>
+      <c r="K58" s="96"/>
+      <c r="L58" s="96"/>
+      <c r="M58" s="96"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
